--- a/Capitol carcteritzar nodes/Sensor humitat del sol/ExcelSensorPlanta.xlsx
+++ b/Capitol carcteritzar nodes/Sensor humitat del sol/ExcelSensorPlanta.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Documents\GitHub\TFM\Capitol carcteritzar nodes\Sensor humitat del sol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7FB3D4-A446-4B54-88FB-3AC554D23375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="75">
   <si>
     <t>Sensor Humitat(artn 11db)</t>
   </si>
@@ -249,12 +243,24 @@
   <si>
     <t>Planta dia 6 zona humida</t>
   </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>humit</t>
+  </si>
+  <si>
+    <t>molt humit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -313,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -344,28 +351,16 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -410,8 +405,8 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -571,32 +566,23 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C7B3-4D8F-AE3D-C4F094158550}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="115767552"/>
-        <c:axId val="115773440"/>
+        <c:dLbls/>
+        <c:axId val="65304064"/>
+        <c:axId val="65305600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115767552"/>
+        <c:axId val="65304064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500"/>
           <c:min val="1400"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -608,8 +594,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -626,17 +610,16 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115773440"/>
+        <c:crossAx val="65305600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115773440"/>
+        <c:axId val="65305600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1500"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -648,8 +631,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -666,7 +647,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115767552"/>
+        <c:crossAx val="65304064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -678,33 +659,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -717,24 +687,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES" sz="1600"/>
-              <a:t>Calibració  del sensor de humitat de sòl a partir</a:t>
+              <a:t>Calibració  del sensor de humitat de sòl </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" sz="1600" baseline="0"/>
-              <a:t> del voltatge d'entrada</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -774,12 +737,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.8347384331636346E-2"/>
+                  <c:x val="-5.8347384331636366E-2"/>
                   <c:y val="5.2730505461010907E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -830,8 +792,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C174-4CE2-956F-3B2FCC2566EF}"/>
             </c:ext>
@@ -862,13 +823,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12835267732905514"/>
-                  <c:y val="0.22976818220303116"/>
+                  <c:x val="0.11255305835114982"/>
+                  <c:y val="0.17832028943763115"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -940,30 +900,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C174-4CE2-956F-3B2FCC2566EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="120398976"/>
-        <c:axId val="120400896"/>
+        <c:dLbls/>
+        <c:axId val="65640320"/>
+        <c:axId val="65667072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120398976"/>
+        <c:axId val="65640320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -981,11 +932,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -997,16 +947,15 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120400896"/>
+        <c:crossAx val="65667072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120400896"/>
+        <c:axId val="65667072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1028,16 +977,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Humitat relativa(%)</a:t>
+                  <a:t>Humitat del</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> sòl</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>(%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1049,7 +1005,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120398976"/>
+        <c:crossAx val="65640320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1061,33 +1017,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1110,14 +1055,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1152,7 +1095,6 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -1218,8 +1160,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E361-4585-8A85-5383DBA9C7AC}"/>
             </c:ext>
@@ -1245,7 +1186,6 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -1311,30 +1251,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E361-4585-8A85-5383DBA9C7AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123827712"/>
-        <c:axId val="123829632"/>
+        <c:dLbls/>
+        <c:axId val="65724416"/>
+        <c:axId val="65726336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123827712"/>
+        <c:axId val="65724416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1352,11 +1283,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1368,16 +1298,15 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123829632"/>
+        <c:crossAx val="65726336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123829632"/>
+        <c:axId val="65726336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1404,11 +1333,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1420,7 +1348,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123827712"/>
+        <c:crossAx val="65724416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1432,33 +1360,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1476,14 +1393,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -1509,13 +1424,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.344986876640421E-2"/>
-                  <c:y val="3.5829402443575686E-2"/>
+                  <c:x val="-2.3449868766404213E-2"/>
+                  <c:y val="3.5829402443575693E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1587,8 +1501,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1DF-46E5-86D3-A93B07225309}"/>
             </c:ext>
@@ -1613,6 +1526,15 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$N$75:$N$81</c:f>
@@ -1673,8 +1595,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D1DF-46E5-86D3-A93B07225309}"/>
             </c:ext>
@@ -1699,6 +1620,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$R$75:$R$84</c:f>
@@ -1750,9 +1675,6 @@
                 <c:pt idx="1">
                   <c:v>64.504500000000007</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.315100000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>64.237500000000011</c:v>
                 </c:pt>
@@ -1777,8 +1699,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D1DF-46E5-86D3-A93B07225309}"/>
             </c:ext>
@@ -1803,6 +1724,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$V$75:$V$85</c:f>
@@ -1887,8 +1812,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D1DF-46E5-86D3-A93B07225309}"/>
             </c:ext>
@@ -1913,6 +1837,21 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$Z$75:$Z$84</c:f>
@@ -1991,8 +1930,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D1DF-46E5-86D3-A93B07225309}"/>
             </c:ext>
@@ -2017,6 +1955,10 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$AE$75:$AE$84</c:f>
@@ -2095,8 +2037,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D1DF-46E5-86D3-A93B07225309}"/>
             </c:ext>
@@ -2121,6 +2062,18 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja1!$AI$75:$AI$84</c:f>
@@ -2199,30 +2152,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D1DF-46E5-86D3-A93B07225309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="124210560"/>
-        <c:axId val="124225024"/>
+        <c:dLbls/>
+        <c:axId val="65823872"/>
+        <c:axId val="65825792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124210560"/>
+        <c:axId val="65823872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2240,11 +2184,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2256,18 +2199,17 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124225024"/>
+        <c:crossAx val="65825792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124225024"/>
+        <c:axId val="65825792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2289,16 +2231,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Humitat relativa(%)</a:t>
+                  <a:t>Humitat del sòl(%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2310,7 +2251,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124210560"/>
+        <c:crossAx val="65823872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2322,15 +2263,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2351,7 +2291,7 @@
         <xdr:cNvPr id="1032049028" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084D1833D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000084D1833D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,18 +2311,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5353051" cy="3124201"/>
+    <xdr:ext cx="5753100" cy="4048126"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1077703234" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042723C40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000042723C40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,10 +2342,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5372101" cy="3371850"/>
     <xdr:graphicFrame macro="">
@@ -2413,7 +2353,7 @@
         <xdr:cNvPr id="480656690" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000323DA61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000323DA61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,18 +2373,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5953125" cy="4086225"/>
+    <xdr:ext cx="5905500" cy="4048126"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2540,27 +2480,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2592,24 +2514,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2785,22 +2689,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F3:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE53" sqref="AE53"/>
+    <sheetView tabSelected="1" topLeftCell="M34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="28" width="10.6640625" customWidth="1"/>
-    <col min="29" max="29" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="28" width="10.7109375" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="6:11">
       <c r="G3" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="6:11">
       <c r="F4" t="s">
         <v>3</v>
       </c>
@@ -2825,7 +2729,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="5" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:11">
       <c r="G5">
         <v>1836</v>
       </c>
@@ -2836,7 +2740,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:11">
       <c r="G6">
         <v>2067</v>
       </c>
@@ -2847,7 +2751,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="7" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:11">
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -2858,7 +2762,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="8" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:11">
       <c r="G8">
         <v>2014</v>
       </c>
@@ -2869,7 +2773,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="9" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:11">
       <c r="G9">
         <v>2307</v>
       </c>
@@ -2880,7 +2784,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="10" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:11">
       <c r="G10">
         <v>2307</v>
       </c>
@@ -2891,7 +2795,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="11" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:11">
       <c r="G11" t="s">
         <v>5</v>
       </c>
@@ -2902,7 +2806,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="12" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:11">
       <c r="G12" t="s">
         <v>5</v>
       </c>
@@ -2913,7 +2817,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="13" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:11">
       <c r="G13" t="s">
         <v>6</v>
       </c>
@@ -2924,7 +2828,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="14" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:11">
       <c r="G14" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2839,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="15" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:11">
       <c r="G15">
         <v>1867</v>
       </c>
@@ -2946,7 +2850,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="16" spans="6:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:11">
       <c r="G16">
         <v>2129</v>
       </c>
@@ -2957,7 +2861,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="17" spans="7:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:11">
       <c r="G17">
         <v>2129</v>
       </c>
@@ -2968,7 +2872,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="18" spans="7:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:11">
       <c r="G18" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +2883,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="19" spans="7:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:11">
       <c r="G19" t="s">
         <v>5</v>
       </c>
@@ -2990,7 +2894,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="20" spans="7:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:11">
       <c r="G20" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +2905,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="21" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:11" ht="15.75" customHeight="1">
       <c r="G21" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +2916,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="22" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:11" ht="15.75" customHeight="1">
       <c r="G22">
         <v>1862</v>
       </c>
@@ -3023,7 +2927,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="23" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:11" ht="15.75" customHeight="1">
       <c r="G23">
         <v>2125</v>
       </c>
@@ -3034,7 +2938,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="24" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:11" ht="15.75" customHeight="1">
       <c r="G24">
         <v>2125</v>
       </c>
@@ -3045,7 +2949,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="25" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:11" ht="15.75" customHeight="1">
       <c r="G25" t="s">
         <v>5</v>
       </c>
@@ -3056,7 +2960,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="26" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:11" ht="15.75" customHeight="1">
       <c r="G26" t="s">
         <v>5</v>
       </c>
@@ -3067,7 +2971,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="27" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:11" ht="15.75" customHeight="1">
       <c r="G27" t="s">
         <v>6</v>
       </c>
@@ -3080,62 +2984,66 @@
         <v>2084.695652173913</v>
       </c>
     </row>
-    <row r="28" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:11" ht="15.75" customHeight="1">
       <c r="G28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f>COUNT(J4:J26)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" ht="15.75" customHeight="1">
       <c r="G29">
         <v>1844</v>
       </c>
     </row>
-    <row r="30" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:11" ht="15.75" customHeight="1">
       <c r="G30">
         <v>2112</v>
       </c>
     </row>
-    <row r="31" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:11" ht="15.75" customHeight="1">
       <c r="G31">
         <v>2112</v>
       </c>
     </row>
-    <row r="32" spans="7:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:11" ht="15.75" customHeight="1">
       <c r="G32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:12" ht="15.75" customHeight="1">
       <c r="G33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:12" ht="15.75" customHeight="1">
       <c r="G34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:12" ht="15.75" customHeight="1">
       <c r="G35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:12" ht="15.75" customHeight="1">
       <c r="G36">
         <v>1843</v>
       </c>
     </row>
-    <row r="37" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:12" ht="15.75" customHeight="1">
       <c r="G37">
         <v>2100</v>
       </c>
     </row>
-    <row r="38" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:12" ht="15.75" customHeight="1">
       <c r="G38">
         <v>2100</v>
       </c>
     </row>
-    <row r="39" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:12" ht="15.75" customHeight="1">
       <c r="G39" t="s">
         <v>5</v>
       </c>
@@ -3146,7 +3054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:12" ht="15.75" customHeight="1">
       <c r="G40" t="s">
         <v>5</v>
       </c>
@@ -3157,7 +3065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:12" ht="15.75" customHeight="1">
       <c r="G41" t="s">
         <v>6</v>
       </c>
@@ -3168,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:12" ht="15.75" customHeight="1">
       <c r="G42" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +3087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:12" ht="15.75" customHeight="1">
       <c r="G43">
         <v>1862</v>
       </c>
@@ -3190,43 +3098,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:12" ht="15.75" customHeight="1">
       <c r="G44">
         <v>2126</v>
       </c>
     </row>
-    <row r="45" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:12" ht="15.75" customHeight="1">
       <c r="G45">
         <v>2126</v>
       </c>
     </row>
-    <row r="46" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:12" ht="15.75" customHeight="1">
       <c r="G46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:12" ht="15.75" customHeight="1">
       <c r="G47" t="s">
         <v>5</v>
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:12" ht="15.75" customHeight="1">
       <c r="G48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:28" ht="15.75" customHeight="1">
       <c r="G49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:28" ht="15.75" customHeight="1">
       <c r="G50">
         <v>1854</v>
       </c>
     </row>
-    <row r="51" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:28" ht="15.75" customHeight="1">
       <c r="G51">
         <v>2110</v>
       </c>
@@ -3237,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:28" ht="15.75" customHeight="1">
       <c r="G52">
         <v>2110</v>
       </c>
@@ -3248,7 +3156,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:28" ht="15.75" customHeight="1">
       <c r="G53" t="s">
         <v>5</v>
       </c>
@@ -3259,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:28" ht="15.75" customHeight="1">
       <c r="G54" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:28" ht="15.75" customHeight="1">
       <c r="G55" t="s">
         <v>6</v>
       </c>
@@ -3281,93 +3189,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:28" ht="15.75" customHeight="1">
       <c r="G56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:28" ht="15.75" customHeight="1">
       <c r="G57">
         <v>1849</v>
       </c>
     </row>
-    <row r="58" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:28" ht="15.75" customHeight="1">
       <c r="G58">
         <v>2111</v>
       </c>
     </row>
-    <row r="59" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:28" ht="15.75" customHeight="1">
       <c r="G59">
         <v>2111</v>
       </c>
-    </row>
-    <row r="60" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AA59">
+        <f>(30+7.5855)/0.0534</f>
+        <v>703.8483146067415</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="7:28" ht="15.75" customHeight="1">
       <c r="G60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="AA60">
+        <f>(70+7.5855)/0.0534</f>
+        <v>1452.9119850187265</v>
+      </c>
+      <c r="AB60" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="7:28" ht="15.75" customHeight="1">
       <c r="G61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <f>(100+7.5855)/0.0534</f>
+        <v>2014.7097378277151</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="7:28" ht="15.75" customHeight="1">
       <c r="G62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:28" ht="15.75" customHeight="1">
       <c r="G63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:28" ht="15.75" customHeight="1">
       <c r="G64">
         <v>1852</v>
       </c>
     </row>
-    <row r="65" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:35" ht="15.75" customHeight="1">
       <c r="G65">
         <v>2107</v>
       </c>
     </row>
-    <row r="66" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:35" ht="15.75" customHeight="1">
       <c r="G66">
         <v>2107</v>
       </c>
     </row>
-    <row r="67" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:35" ht="15.75" customHeight="1">
       <c r="G67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:35" ht="15.75" customHeight="1">
       <c r="G68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:35" ht="15.75" customHeight="1">
       <c r="G69" t="s">
         <v>6</v>
       </c>
       <c r="AC69" s="5"/>
     </row>
-    <row r="70" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:35" ht="15.75" customHeight="1">
       <c r="G70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:35" ht="15.75" customHeight="1">
       <c r="G71">
         <v>1830</v>
       </c>
     </row>
-    <row r="72" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:35" ht="15.75" customHeight="1">
       <c r="G72">
         <v>2096</v>
       </c>
     </row>
-    <row r="73" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:35" ht="15.75" customHeight="1">
       <c r="G73">
         <v>2096</v>
       </c>
@@ -3401,7 +3348,7 @@
       </c>
       <c r="AH73" s="6"/>
     </row>
-    <row r="74" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:35" ht="15.75" customHeight="1">
       <c r="G74" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:35" ht="15.75" customHeight="1">
       <c r="G75" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3430,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:35" ht="15.75" customHeight="1">
       <c r="G76" t="s">
         <v>6</v>
       </c>
@@ -3524,7 +3471,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:35" ht="15.75" customHeight="1">
       <c r="G77" t="s">
         <v>4</v>
       </c>
@@ -3565,7 +3512,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:35" ht="15.75" customHeight="1">
       <c r="G78">
         <v>1833</v>
       </c>
@@ -3606,7 +3553,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:35" ht="15.75" customHeight="1">
       <c r="G79">
         <v>2095</v>
       </c>
@@ -3647,7 +3594,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:35" ht="15.75" customHeight="1">
       <c r="G80">
         <v>2095</v>
       </c>
@@ -3688,7 +3635,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:35" ht="15.75" customHeight="1">
       <c r="G81" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3676,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:35" ht="15.75" customHeight="1">
       <c r="G82" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3717,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:35" ht="15.75" customHeight="1">
       <c r="G83" t="s">
         <v>6</v>
       </c>
@@ -3811,7 +3758,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:35" ht="15.75" customHeight="1">
       <c r="G84" t="s">
         <v>4</v>
       </c>
@@ -3852,7 +3799,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:35" ht="15.75" customHeight="1">
       <c r="G85">
         <v>1837</v>
       </c>
@@ -3878,7 +3825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:35" ht="15.75" customHeight="1">
       <c r="G86">
         <v>2067</v>
       </c>
@@ -3916,7 +3863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:35" ht="15.75" customHeight="1">
       <c r="G87">
         <v>2067</v>
       </c>
@@ -3962,7 +3909,7 @@
         <v>4.6965000000000003</v>
       </c>
     </row>
-    <row r="88" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:35" ht="15.75" customHeight="1">
       <c r="G88" t="s">
         <v>5</v>
       </c>
@@ -4009,7 +3956,7 @@
         <v>5.230500000000001</v>
       </c>
     </row>
-    <row r="89" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:35" ht="15.75" customHeight="1">
       <c r="G89" t="s">
         <v>5</v>
       </c>
@@ -4023,10 +3970,6 @@
       <c r="P89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R89">
-        <f t="shared" si="2"/>
-        <v>62.315100000000001</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>25</v>
       </c>
@@ -4056,7 +3999,7 @@
         <v>5.8179000000000016</v>
       </c>
     </row>
-    <row r="90" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:35" ht="15.75" customHeight="1">
       <c r="G90" t="s">
         <v>6</v>
       </c>
@@ -4103,7 +4046,7 @@
         <v>4.6965000000000003</v>
       </c>
     </row>
-    <row r="91" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:35" ht="15.75" customHeight="1">
       <c r="G91" t="s">
         <v>4</v>
       </c>
@@ -4150,7 +4093,7 @@
         <v>5.8179000000000016</v>
       </c>
     </row>
-    <row r="92" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:35" ht="15.75" customHeight="1">
       <c r="G92">
         <v>1827</v>
       </c>
@@ -4197,7 +4140,7 @@
         <v>4.8567000000000018</v>
       </c>
     </row>
-    <row r="93" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:35" ht="15.75" customHeight="1">
       <c r="G93">
         <v>2078</v>
       </c>
@@ -4244,7 +4187,7 @@
         <v>6.992700000000001</v>
       </c>
     </row>
-    <row r="94" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:35" ht="15.75" customHeight="1">
       <c r="G94">
         <v>2078</v>
       </c>
@@ -4291,7 +4234,7 @@
         <v>6.4587000000000003</v>
       </c>
     </row>
-    <row r="95" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:35" ht="15.75" customHeight="1">
       <c r="G95" t="s">
         <v>5</v>
       </c>
@@ -4338,7 +4281,7 @@
         <v>4.376100000000001</v>
       </c>
     </row>
-    <row r="96" spans="7:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:35" ht="15.75" customHeight="1">
       <c r="G96" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4328,7 @@
         <v>5.1237000000000013</v>
       </c>
     </row>
-    <row r="97" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:33" ht="15.75" customHeight="1">
       <c r="G97" t="s">
         <v>6</v>
       </c>
@@ -4412,7 +4355,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:33" ht="15.75" customHeight="1">
       <c r="G98" t="s">
         <v>4</v>
       </c>
@@ -4439,7 +4382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:33" ht="15.75" customHeight="1">
       <c r="G99">
         <v>1879</v>
       </c>
@@ -4462,7 +4405,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:33" ht="15.75" customHeight="1">
       <c r="G100">
         <v>2134</v>
       </c>
@@ -4485,7 +4428,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:33" ht="15.75" customHeight="1">
       <c r="G101">
         <v>2134</v>
       </c>
@@ -4508,7 +4451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:33" ht="15.75" customHeight="1">
       <c r="G102" t="s">
         <v>5</v>
       </c>
@@ -4531,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:33" ht="15.75" customHeight="1">
       <c r="G103" t="s">
         <v>5</v>
       </c>
@@ -4554,7 +4497,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:33" ht="15.75" customHeight="1">
       <c r="G104" t="s">
         <v>6</v>
       </c>
@@ -4577,7 +4520,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:33" ht="15.75" customHeight="1">
       <c r="G105" t="s">
         <v>4</v>
       </c>
@@ -4600,7 +4543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:33" ht="15.75" customHeight="1">
       <c r="G106">
         <v>1868</v>
       </c>
@@ -4623,7 +4566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:33" ht="15.75" customHeight="1">
       <c r="G107">
         <v>2154</v>
       </c>
@@ -4646,7 +4589,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:33" ht="15.75" customHeight="1">
       <c r="G108">
         <v>2154</v>
       </c>
@@ -4669,7 +4612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:33" ht="15.75" customHeight="1">
       <c r="G109" t="s">
         <v>5</v>
       </c>
@@ -4692,7 +4635,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:33" ht="15.75" customHeight="1">
       <c r="G110" t="s">
         <v>5</v>
       </c>
@@ -4715,7 +4658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:33" ht="15.75" customHeight="1">
       <c r="G111" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4681,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:33" ht="15.75" customHeight="1">
       <c r="G112" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:33" ht="15.75" customHeight="1">
       <c r="G113">
         <v>1862</v>
       </c>
@@ -4781,7 +4724,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:33" ht="15.75" customHeight="1">
       <c r="G114">
         <v>2131</v>
       </c>
@@ -4790,7 +4733,7 @@
       </c>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:33" ht="15.75" customHeight="1">
       <c r="G115">
         <v>2131</v>
       </c>
@@ -4798,7 +4741,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="116" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:33" ht="15.75" customHeight="1">
       <c r="G116" t="s">
         <v>5</v>
       </c>
@@ -4806,1054 +4749,1054 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="117" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:33" ht="15.75" customHeight="1">
       <c r="G117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:33" ht="15.75" customHeight="1">
       <c r="G118" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:33" ht="15.75" customHeight="1">
       <c r="G119" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:33" ht="15.75" customHeight="1">
       <c r="G120">
         <v>1867</v>
       </c>
     </row>
-    <row r="121" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:33" ht="15.75" customHeight="1">
       <c r="G121">
         <v>2131</v>
       </c>
     </row>
-    <row r="122" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:33" ht="15.75" customHeight="1">
       <c r="G122">
         <v>2131</v>
       </c>
     </row>
-    <row r="123" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:33" ht="15.75" customHeight="1">
       <c r="G123" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:33" ht="15.75" customHeight="1">
       <c r="G124" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:33" ht="15.75" customHeight="1">
       <c r="G125" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:33" ht="15.75" customHeight="1">
       <c r="G126" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:33" ht="15.75" customHeight="1">
       <c r="G127">
         <v>1742</v>
       </c>
     </row>
-    <row r="128" spans="7:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:33" ht="15.75" customHeight="1">
       <c r="G128">
         <v>1973</v>
       </c>
     </row>
-    <row r="129" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:7" ht="15.75" customHeight="1">
       <c r="G129">
         <v>1973</v>
       </c>
     </row>
-    <row r="130" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:7" ht="15.75" customHeight="1">
       <c r="G130" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:7" ht="15.75" customHeight="1">
       <c r="G131" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:7" ht="15.75" customHeight="1">
       <c r="G132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:7" ht="15.75" customHeight="1">
       <c r="G133" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:7" ht="15.75" customHeight="1">
       <c r="G134">
         <v>1734</v>
       </c>
     </row>
-    <row r="135" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:7" ht="15.75" customHeight="1">
       <c r="G135">
         <v>1966</v>
       </c>
     </row>
-    <row r="136" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:7" ht="15.75" customHeight="1">
       <c r="G136">
         <v>1966</v>
       </c>
     </row>
-    <row r="137" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:7" ht="15.75" customHeight="1">
       <c r="G137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:7" ht="15.75" customHeight="1">
       <c r="G138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:7" ht="15.75" customHeight="1">
       <c r="G139" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:7" ht="15.75" customHeight="1">
       <c r="G140" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:7" ht="15.75" customHeight="1">
       <c r="G141">
         <v>1700</v>
       </c>
     </row>
-    <row r="142" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:7" ht="15.75" customHeight="1">
       <c r="G142">
         <v>1920</v>
       </c>
     </row>
-    <row r="143" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:7" ht="15.75" customHeight="1">
       <c r="G143">
         <v>1920</v>
       </c>
     </row>
-    <row r="144" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:7" ht="15.75" customHeight="1">
       <c r="G144" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:7" ht="15.75" customHeight="1">
       <c r="G145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:7" ht="15.75" customHeight="1">
       <c r="G146" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:7" ht="15.75" customHeight="1">
       <c r="G147" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:7" ht="15.75" customHeight="1">
       <c r="G148">
         <v>1661</v>
       </c>
     </row>
-    <row r="149" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:7" ht="15.75" customHeight="1">
       <c r="G149">
         <v>1870</v>
       </c>
     </row>
-    <row r="150" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:7" ht="15.75" customHeight="1">
       <c r="G150">
         <v>1870</v>
       </c>
     </row>
-    <row r="151" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:7" ht="15.75" customHeight="1">
       <c r="G151" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:7" ht="15.75" customHeight="1">
       <c r="G152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:7" ht="15.75" customHeight="1">
       <c r="G153" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:7" ht="15.75" customHeight="1">
       <c r="G154" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:7" ht="15.75" customHeight="1">
       <c r="G155">
         <v>1800</v>
       </c>
     </row>
-    <row r="156" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:7" ht="15.75" customHeight="1">
       <c r="G156">
         <v>2039</v>
       </c>
     </row>
-    <row r="157" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:7" ht="15.75" customHeight="1">
       <c r="G157">
         <v>2039</v>
       </c>
     </row>
-    <row r="158" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="159" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="160" spans="7:7" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AG73:AH73"/>
@@ -5870,996 +5813,996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6867,996 +6810,996 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
